--- a/questions.xlsx
+++ b/questions.xlsx
@@ -424,22 +424,22 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>topic_id</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>question</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>url</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -456,54 +456,54 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>b20834b6149c11ee8154b182d7ced985</t>
+          <t>abcd</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>fc1c3f36164311eea88ae3300d621ca4</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>arrays</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Path Sum II</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://leetcode.com/problems/path-sum-ii/</t>
+          <t>asdf</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>leetcode</t>
+          <t>codechef</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>a173671c15d011ee8e788d805d81dcbd</t>
+          <t>adcde</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>55c324b8164511eea88ae3300d621ca4</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>twoPointers</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>sadawd</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>asdasd</t>
+          <t>sadd</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,6 +677,518 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/target-sum/?envType=list&amp;envId=er2c1j13</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8c186c94199711eea88ae3300d621ca4</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>arrays</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Target Sum</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/maximum-sum-circular-subarray/?envType=list&amp;envId=er2c1j13</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9e6b97e0199711eea88ae3300d621ca4</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>arrays</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Maximum Sum Circular Subarray</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/longest-substring-without-repeating-characters/?envType=list&amp;envId=efdk2wsi</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>bfcc797c199711eea88ae3300d621ca4</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>strings</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Longest Substring Without Repeating Characters</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/longest-palindromic-substring/?envType=list&amp;envId=efdk2wsi</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>d317bc62199711eea88ae3300d621ca4</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>strings</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Longest Palindromic Substring</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/decode-string/?envType=list&amp;envId=efdk2wsi</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>dfdd21da199711eea88ae3300d621ca4</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>strings</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Decode String</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/longest-common-prefix/?envType=list&amp;envId=efdk2wsi</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>072e0b1e199811eea88ae3300d621ca4</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>strings</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Longest Common Prefix</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/repeated-substring-pattern/?envType=list&amp;envId=efdk2wsi</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>36ff972c199811eea88ae3300d621ca4</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>strings</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Repeated Substring Pattern</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/sort-characters-by-frequency/?envType=list&amp;envId=efdk2wsi</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>4cb30a90199811eea88ae3300d621ca4</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>strings</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Sort Characters By Frequency</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/longest-duplicate-substring/?envType=list&amp;envId=efdk2wsi</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>6742bc0c199811eea88ae3300d621ca4</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>strings</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Longest Duplicate Substring</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/reformat-the-string/?envType=list&amp;envId=efdk2wsi</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>77897c90199811eea88ae3300d621ca4</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>strings</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Reformat The String</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/split-two-strings-to-make-palindrome/</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>e71f12f4199811eea88ae3300d621ca4</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>twoPointers</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Split Two Strings to Make Palindrome</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/3sum/</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>f5df63a2199811eea88ae3300d621ca4</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>twoPointers</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3Sum</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/shortest-unsorted-continuous-subarray/</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0759382e199911eea88ae3300d621ca4</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>twoPointers</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Shortest Unsorted Continuous Subarray</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/rotate-array/</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>14bc1a04199911eea88ae3300d621ca4</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>twoPointers</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Rotate Array</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/next-permutation/</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>374ca1d8199911eea88ae3300d621ca4</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>twoPointers</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Next Permutation</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/squares-of-a-sorted-array/</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>535cf4c2199911eea88ae3300d621ca4</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>twoPointers</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Squares of a Sorted Array</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1189,6 +1189,2182 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>90ef597c1ae011eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>twoPointers</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>asdasdasd</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>codechef</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/unique-email-addresses/</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>b2630f441cc111eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>arrays</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Unique Email Addresses</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/longest-common-prefix/</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>c0470ae81cc111eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>arrays</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Longest Common Prefix</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/two-sum/</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>cd96eb3c1cc111eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>arrays</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Two Sum</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/valid-anagram/</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>dcd58f5e1cc111eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>arrays</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Valid Anagram</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/next-greater-element-i/</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>18ea386e1cc211eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>arrays</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Next Greater Element I</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/find-pivot-index/</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2ea08e601cc211eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>arrays</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Find Pivot Index</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/majority-element/</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>43eae23e1cc211eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>arrays</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Majority Element</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/can-place-flowers/</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>601182921cc211eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>arrays</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Can Place Flowers</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/pascals-triangle/</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>6f910e681cc211eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>arrays</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pascal's Triangle</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/isomorphic-strings/</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>8068b06a1cc211eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>arrays</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Isomorphic Strings</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/design-parking-system/</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>26da60221cc511eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>arrays</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Design Parking System</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/design-hashmap/</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>3441f4461cc511eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>arrays</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Design HashMap</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/design-hashset/</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>48e5adca1cc511eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>arrays</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Design HashSet</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/word-pattern/</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>56481cfa1cc511eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>arrays</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Word Pattern</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/range-sum-query-immutable/</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>78021a081cc511eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>arrays</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Range Sum Query - Immutable</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/subarray-sum-equals-k/</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>c9c864281cc511eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>arrays</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Subarray Sum Equals K</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/sort-colors/</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ddff7a1c1cc511eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>arrays</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Sort Colors</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/longest-consecutive-sequence/</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ec1a79261cc511eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>arrays</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Longest Consecutive Sequence</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/valid-sudoku/</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>fa5138221cc511eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>arrays</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Valid Sudoku</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/product-of-array-except-self/</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>086121f21cc611eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>arrays</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Product of Array Except Self</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/top-k-frequent-elements/</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159d55f21cc611eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>arrays</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Top K Frequent Elements</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/group-anagrams/</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>22431b521cc611eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>arrays</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Group Anagrams</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/design-underground-system/</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>468e28081cc611eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>arrays</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Design Underground System</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/non-decreasing-array/</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>5382dbbc1cc611eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>arrays</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Non-decreasing Array</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/insert-delete-getrandom-o1/</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>611160dc1cc611eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>arrays</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Insert Delete GetRandom O(1)</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/repeated-dna-sequences/</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>6f6d87fa1cc611eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>arrays</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Repeated DNA Sequences</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock-ii/</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>9ba539d01cc611eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>arrays</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Best Time to Buy and Sell Stock II</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/first-missing-positive/</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>adf148e01cc611eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>arrays</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>First Missing Positive</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/naming-a-company/</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>b925f5e41cc611eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>arrays</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Naming a Company</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/move-zeroes/</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>a22621921cc711eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>twoPointers</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Move Zeroes</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/reverse-string/</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>b1654ee41cc711eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>twoPointers</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Reverse String</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/merge-strings-alternately/</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>c51479ba1cc711eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>twoPointers</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Merge Strings Alternately</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/minimum-difference-between-highest-and-lowest-of-k-scores/</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>d7bcc78e1cc711eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>twoPointers</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Minimum Difference Between Highest and Lowest of K Scores</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/valid-palindrome-ii/</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>e675e5121cc711eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>twoPointers</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Valid Palindrome II</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/valid-palindrome/</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>f301a2301cc711eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>twoPointers</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Valid Palindrome</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/merge-sorted-array/</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>104de48e1cc811eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>twoPointers</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Merge Sorted Array</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/boats-to-save-people/</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>437905a01cc811eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>twoPointers</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Boats to Save People</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/number-of-subsequences-that-satisfy-the-given-sum-condition/</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>543483601cc811eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>twoPointers</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Number of Subsequences That Satisfy the Given Sum Condition</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/container-with-most-water/</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>5fe99ab01cc811eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>twoPointers</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Container With Most Water</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/4sum/</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>7b7467f61cc811eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>twoPointers</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4Sum</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/two-sum-ii-input-array-is-sorted/</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>883f94c41cc811eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>twoPointers</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Two Sum II - Input Array Is Sorted</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/remove-duplicates-from-sorted-array-ii/</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>96f304561cc811eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>twoPointers</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Remove Duplicates from Sorted Array II</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/jewels-and-stones/</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>0dc74f401ccb11eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>strings</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Jewels and Stones</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/word-ladder-ii/</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>4ad0396e1dbc11eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>strings</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Word Ladder II</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/longest-valid-parentheses/</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>731632ca1dbc11eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>strings</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Longest Valid Parentheses</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/next-greater-element-iii/</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>cc96a2e41dbc11eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>strings</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Next Greater Element III</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/largest-number/</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ed142ce41dbc11eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>strings</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Largest Number</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/repeated-string-match/</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>107861821dbd11eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>strings</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Repeated String Match</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/minimum-number-of-flips-to-make-the-binary-string-alternating/</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>449ae4081dbd11eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>strings</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Minimum Number of Flips to Make the Binary String Alternating</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/string-without-aaa-or-bbb/</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>7b88c4ee1dbd11eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>strings</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>String Without AAA or BBB</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/permutation-in-string/</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>a1eccac21dbd11eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>strings</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Permutation in String</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/find-the-kth-largest-integer-in-the-array/</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>b8942e781dbd11eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>strings</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Find the Kth Largest Integer in the Array</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/remove-duplicate-letters/</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>cdbfb0ba1dbd11eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>strings</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Remove Duplicate Letters</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/word-break/</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>e364cfd61dbd11eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>strings</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Word Break</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/reorganize-string/</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1d99b3a61dbe11eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>strings</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Reorganize String</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/edit-distance/</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>343e5fe41dbe11eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>strings</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Edit Distance</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/determine-if-two-strings-are-close/</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>5c4e8dce1dbe11eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>arrays</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Determine if Two Strings Are Close</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/top-k-frequent-words/</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>879cce141dbe11eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>strings</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Top K Frequent Words</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string-ii/</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>9beb43b41dbe11eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>strings</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Remove All Adjacent Duplicates in String II</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/longest-happy-string/</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>acbd728e1dbe11eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>strings</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Longest Happy String</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/decode-string/</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>be351bc01dbe11eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>strings</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Decode String</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/check-if-one-string-swap-can-make-strings-equal/</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1f1539201dbf11eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>strings</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Check if One String Swap Can Make Strings Equal</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/repeated-substring-pattern/</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>30b4ccf41dbf11eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>strings</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Repeated Substring Pattern</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/reformat-the-string/</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>599527901dbf11eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>strings</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Reformat The String</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/consecutive-characters/</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>6b285b761dbf11eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>strings</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Consecutive Characters</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/sorting-the-sentence/</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>9173354e1dbf11eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>strings</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Sorting the Sentence</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/shuffle-string/</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>aa764f721dbf11eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>strings</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Shuffle String</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3365,6 +3365,70 @@
         </is>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/baseball-game/</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>c65a510a1dc111eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>stack</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Baseball Game</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/search-insert-position/</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>a0bd68501dc211eea5719f9e1997d77b</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>binarySearch</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Search Insert Position</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3429,6 +3429,870 @@
         </is>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/guess-number-higher-or-lower/</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>f5ac46fe1e2311eea23ee74466e6c372</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>binarySearch</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Guess Number Higher or Lower</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/arranging-coins/</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>0660b9d01e2411eea23ee74466e6c372</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>binarySearch</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Arranging Coins</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/valid-perfect-square/</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2bce1e101e2411eea23ee74466e6c372</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>binarySearch</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Valid Perfect Square</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/single-element-in-a-sorted-array/</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>42b9dcb81e2411eea23ee74466e6c372</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>stack</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Single Element in a Sorted Array</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/capacity-to-ship-packages-within-d-days/</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>5125a7781e2411eea23ee74466e6c372</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>binarySearch</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Capacity To Ship Packages Within D Days</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/find-peak-element/</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>5fe30cec1e2411eea23ee74466e6c372</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>binarySearch</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Find Peak Element</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/successful-pairs-of-spells-and-potions/</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>6d8e8ccc1e2411eea23ee74466e6c372</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>binarySearch</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Successful Pairs of Spells and Potions</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/koko-eating-bananas/</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>7cc3324c1e2411eea23ee74466e6c372</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>binarySearch</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Koko Eating Bananas</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/find-minimum-in-rotated-sorted-array/</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>9225b89e1e2411eea23ee74466e6c372</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>binarySearch</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Find Minimum in Rotated Sorted Array</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/search-in-rotated-sorted-array/</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>9ecffe061e2411eea23ee74466e6c372</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>binarySearch</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Search in Rotated Sorted Array</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/find-first-and-last-position-of-element-in-sorted-array/</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>acb9b6ba1e2411eea23ee74466e6c372</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>binarySearch</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Find First and Last Position of Element in Sorted Array</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/split-array-largest-sum/</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>c8a68baa1e2411eea23ee74466e6c372</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>binarySearch</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Split Array Largest Sum</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/median-of-two-sorted-arrays/</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>d30ac3c21e2411eea23ee74466e6c372</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>binarySearch</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Median of Two Sorted Arrays</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/search-a-2d-matrix/?envType=list&amp;envId=9jlbghzr</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>fdde6b441e2411eea23ee74466e6c372</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>binarySearch</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Search a 2D Matrix</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/implement-stack-using-queues/</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2c6a519e1e2511eea23ee74466e6c372</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>stack</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Implement Stack using Queues</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/min-stack/</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>388f46141e2511eea23ee74466e6c372</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>stack</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Min Stack</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/evaluate-reverse-polish-notation/</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>456dab461e2511eea23ee74466e6c372</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>stack</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Evaluate Reverse Polish Notation</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/removing-stars-from-a-string/</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>684d3d2a1e2511eea23ee74466e6c372</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>stack</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Removing Stars From a String</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/validate-stack-sequences/</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>752c571a1e2511eea23ee74466e6c372</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>stack</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Validate Stack Sequences</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/132-pattern/?envType=list&amp;envId=91kuzqsv</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>8c52cba41e2511eea23ee74466e6c372</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>stack</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>132 Pattern</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/remove-duplicate-letters/?envType=list&amp;envId=91kuzqsv</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>989719241e2511eea23ee74466e6c372</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>stack</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Remove Duplicate Letters</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/daily-temperatures/?envType=list&amp;envId=91kuzqsv</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>b309e3041e2511eea23ee74466e6c372</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>stack</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Daily Temperatures</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string-ii/?envType=list&amp;envId=91kuzqsv</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>bfe136f41e2511eea23ee74466e6c372</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>stack</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Remove All Adjacent Duplicates in String II</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/valid-parentheses/</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>f35b18c41e2511eea23ee74466e6c372</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>stack</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Valid Parentheses</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/largest-rectangle-in-histogram/</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>26cff29c1e2611eea23ee74466e6c372</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>stack</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Largest Rectangle in Histogram</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/maximal-rectangle/</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>3bdd7bd21e2611eea23ee74466e6c372</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>stack</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Maximal Rectangle</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>https://leetcode.com/problems/number-of-visible-people-in-a-queue/</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>4c887b6c1e2611eea23ee74466e6c372</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>stack</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Number of Visible People in a Queue</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>leetcode</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
